--- a/db_structure/018 Delivery Challan.xlsx
+++ b/db_structure/018 Delivery Challan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,6 +552,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -587,6 +604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -765,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +852,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>145</v>
+      </c>
       <c r="D7" t="s">
         <v>60</v>
       </c>
@@ -830,7 +866,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>146</v>
+      </c>
       <c r="D8" t="s">
         <v>61</v>
       </c>
@@ -842,7 +880,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>147</v>
+      </c>
       <c r="D9" t="s">
         <v>62</v>
       </c>
@@ -875,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/018 Delivery Challan.xlsx
+++ b/db_structure/018 Delivery Challan.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
         <v>62</v>

--- a/db_structure/018 Delivery Challan.xlsx
+++ b/db_structure/018 Delivery Challan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCDE748B-3571-4D66-8C53-DB82D3E11F72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="127">
   <si>
     <t>Document Number</t>
   </si>
@@ -278,9 +279,6 @@
     <t>dcns_dcnh_id</t>
   </si>
   <si>
-    <t>dcns_gnit_id</t>
-  </si>
-  <si>
     <t>dcns_porh_id</t>
   </si>
   <si>
@@ -390,12 +388,21 @@
   </si>
   <si>
     <t>dcnd_gnrs_id</t>
+  </si>
+  <si>
+    <t>dcns_sotd_id</t>
+  </si>
+  <si>
+    <t>New Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -459,6 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,11 +804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,9 +818,10 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -821,14 +830,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -837,7 +846,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -850,8 +859,11 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>146</v>
       </c>
@@ -864,8 +876,11 @@
       <c r="F7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>147</v>
       </c>
@@ -878,8 +893,11 @@
       <c r="F8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>148</v>
       </c>
@@ -892,17 +910,20 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -912,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1017,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>73</v>
@@ -1028,7 +1049,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -1100,20 +1121,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
         <v>122</v>
-      </c>
-      <c r="G13" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,7 +1255,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1252,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1270,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1288,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1300,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1318,7 +1339,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1336,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1351,10 +1372,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1368,7 +1389,7 @@
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -1383,7 +1404,7 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1397,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1416,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1427,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -1441,10 +1462,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -1456,21 +1477,21 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="G40" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1496,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1511,46 +1532,46 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
         <v>106</v>
-      </c>
-      <c r="G43" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" t="s">
         <v>109</v>
-      </c>
-      <c r="G44" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
